--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_130__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_130__Reeval_Halton_Modell_1.3.xlsx
@@ -6032,16 +6032,16 @@
                   <c:v>78.51661682128906</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93.62222290039062</c:v>
+                  <c:v>93.62220764160156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.65892028808594</c:v>
+                  <c:v>75.65892791748047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81.69666290283203</c:v>
+                  <c:v>81.6966552734375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.58934783935547</c:v>
+                  <c:v>78.58935546875</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>76.83333587646484</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>72.48074340820312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>82.00288391113281</c:v>
+                  <c:v>82.00287628173828</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>52.88317108154297</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>76.42938232421875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71.82613372802734</c:v>
+                  <c:v>71.82614135742188</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>78.40610504150391</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>80.82403564453125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>78.27738189697266</c:v>
+                  <c:v>78.27738952636719</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42.03821563720703</c:v>
@@ -6167,7 +6167,7 @@
                   <c:v>96.79306030273438</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.1588134765625</c:v>
+                  <c:v>71.15880584716797</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>77.88221740722656</c:v>
@@ -6188,13 +6188,13 @@
                   <c:v>46.49546813964844</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>58.33063507080078</c:v>
+                  <c:v>58.33062744140625</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>79.53524780273438</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.33573913574219</c:v>
+                  <c:v>81.33572387695312</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>42.95861053466797</c:v>
@@ -6203,10 +6203,10 @@
                   <c:v>45.83328247070312</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>29.4647388458252</c:v>
+                  <c:v>29.46473693847656</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>41.27291488647461</c:v>
+                  <c:v>41.27291870117188</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>76.64091491699219</c:v>
@@ -6230,7 +6230,7 @@
                   <c:v>56.55970001220703</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>16.92245292663574</c:v>
+                  <c:v>16.92245483398438</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>76.04019165039062</c:v>
@@ -6242,7 +6242,7 @@
                   <c:v>92.91029357910156</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44.74578094482422</c:v>
+                  <c:v>44.74578857421875</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>72.51641845703125</c:v>
@@ -6260,7 +6260,7 @@
                   <c:v>77.56351470947266</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>81.31193542480469</c:v>
+                  <c:v>81.31192779541016</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45.90106201171875</c:v>
@@ -6275,7 +6275,7 @@
                   <c:v>76.57961273193359</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>57.36067199707031</c:v>
+                  <c:v>57.36066436767578</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>79.90467834472656</c:v>
@@ -7351,7 +7351,7 @@
         <v>90.83759999999999</v>
       </c>
       <c r="F17">
-        <v>93.62222290039062</v>
+        <v>93.62220764160156</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>76.8933</v>
       </c>
       <c r="F18">
-        <v>75.65892028808594</v>
+        <v>75.65892791748047</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>80.1439</v>
       </c>
       <c r="F19">
-        <v>81.69666290283203</v>
+        <v>81.6966552734375</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>82.3721</v>
       </c>
       <c r="F20">
-        <v>78.58934783935547</v>
+        <v>78.58935546875</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>80.0192</v>
       </c>
       <c r="F23">
-        <v>82.00288391113281</v>
+        <v>82.00287628173828</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>74.5831</v>
       </c>
       <c r="F34">
-        <v>71.82613372802734</v>
+        <v>71.82614135742188</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>78.4419</v>
       </c>
       <c r="F53">
-        <v>78.27738189697266</v>
+        <v>78.27738952636719</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>69.6538</v>
       </c>
       <c r="F62">
-        <v>71.1588134765625</v>
+        <v>71.15880584716797</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>45.9424</v>
       </c>
       <c r="F69">
-        <v>58.33063507080078</v>
+        <v>58.33062744140625</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>80.3858</v>
       </c>
       <c r="F71">
-        <v>81.33573913574219</v>
+        <v>81.33572387695312</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>27.7657</v>
       </c>
       <c r="F74">
-        <v>29.4647388458252</v>
+        <v>29.46473693847656</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>41.27291488647461</v>
+        <v>41.27291870117188</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>11.5216</v>
       </c>
       <c r="F83">
-        <v>16.92245292663574</v>
+        <v>16.92245483398438</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>38.1825</v>
       </c>
       <c r="F87">
-        <v>44.74578094482422</v>
+        <v>44.74578857421875</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>80.4624</v>
       </c>
       <c r="F93">
-        <v>81.31193542480469</v>
+        <v>81.31192779541016</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>51.1369</v>
       </c>
       <c r="F98">
-        <v>57.36067199707031</v>
+        <v>57.36066436767578</v>
       </c>
     </row>
     <row r="99" spans="1:6">
